--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224012.714688133</v>
+        <v>1222125.133171731</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>2.684372301327198</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>230.8716121771575</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.94259091990867</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>146.5840649587251</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>30.99636303581896</v>
       </c>
       <c r="T5" t="n">
-        <v>199.6264922638895</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.51701265160257</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>345.3301192593344</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>362.7558991170608</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>123.2067794713427</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.764863467406547</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>161.730192768089</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>86.50175674946506</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.5099614590992</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>248.3543821397116</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>141.9118581262122</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>94.30542059989271</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065122</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>51.43777081533393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.77251716083997</v>
       </c>
       <c r="S25" t="n">
-        <v>134.9741352843357</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>3.347695664763677</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>38.88055758535573</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>78.67531269947733</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>38.17624413234252</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
         <v>99.11493096898717</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463126</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.544000781331</v>
+        <v>1783.124109094748</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.581483840919</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1564.581483840919</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.793231242675</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>767.8073264530674</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>580.0642721269139</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="T5" t="n">
-        <v>2495.506169539546</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="U5" t="n">
-        <v>2495.506169539546</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="V5" t="n">
-        <v>2495.506169539546</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W5" t="n">
-        <v>2495.506169539546</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>2122.040411278466</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1731.901079302655</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870964</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870964</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1172.012887498878</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>813.747188892128</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>813.747188892128</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>402.7612841025204</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>574.2607726647607</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>718.2654857545084</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>463.5809975486215</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.8250614170375</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="C13" t="n">
-        <v>557.8888784891307</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="D13" t="n">
-        <v>557.8888784891307</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>557.8888784891307</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>410.9989309912203</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>922.4921098188663</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150549</v>
+        <v>633.0749397819056</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170375</v>
+        <v>633.0749397819056</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170375</v>
+        <v>412.2823606383755</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025653</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046251</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.1058742183019</v>
+        <v>503.554723918642</v>
       </c>
       <c r="C16" t="n">
-        <v>359.169691290395</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="D16" t="n">
-        <v>359.169691290395</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E16" t="n">
-        <v>359.169691290395</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>359.169691290395</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1288.300147871944</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>999.1715090855022</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1715090855022</v>
+        <v>913.1927396468991</v>
       </c>
       <c r="W16" t="n">
-        <v>709.7543390485416</v>
+        <v>913.1927396468991</v>
       </c>
       <c r="X16" t="n">
-        <v>709.7543390485416</v>
+        <v>685.2031887488818</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.7543390485416</v>
+        <v>685.2031887488818</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1966.019627967826</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2486.320249703573</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>854.4182661194303</v>
+        <v>825.1124611285481</v>
       </c>
       <c r="C19" t="n">
-        <v>685.4820831915234</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3654437791877</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>387.4523501967946</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>240.5624026988841</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1403.658269951951</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1114.529631165509</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>1114.529631165509</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>825.1124611285481</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.21084526296</v>
+        <v>825.1124611285481</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.4182661194303</v>
+        <v>825.1124611285481</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5750,28 +5750,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1112.098407651321</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W22" t="n">
-        <v>822.6812376143603</v>
+        <v>665.6859735286133</v>
       </c>
       <c r="X22" t="n">
-        <v>594.6916867163429</v>
+        <v>437.696422630596</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163429</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
         <v>244.1070389581962</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1419.348071405539</v>
       </c>
       <c r="S25" t="n">
-        <v>1362.578760169685</v>
+        <v>1419.348071405539</v>
       </c>
       <c r="T25" t="n">
-        <v>1138.79334495919</v>
+        <v>1419.348071405539</v>
       </c>
       <c r="U25" t="n">
-        <v>1138.79334495919</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="V25" t="n">
-        <v>884.1088567533034</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W25" t="n">
-        <v>594.6916867163428</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X25" t="n">
-        <v>594.6916867163428</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.6916867163428</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9563154684964</v>
+        <v>100.5986022327745</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405895</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471185</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687012</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V28" t="n">
-        <v>970.5943311967537</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W28" t="n">
-        <v>970.5943311967537</v>
+        <v>731.0291971045615</v>
       </c>
       <c r="X28" t="n">
-        <v>742.6047802987363</v>
+        <v>503.0396462065442</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.6047802987362</v>
+        <v>282.2470670630142</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541574</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076213</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1897.564200296132</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367009</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861938</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937422</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181832</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651854</v>
+        <v>730.4517433652458</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030262</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,13 +6713,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6850,13 +6850,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254958</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,10 +7078,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,16 +7126,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010317</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,49 +7175,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
         <v>1808.163466324677</v>
@@ -7549,31 +7549,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,16 +7643,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,10 +7843,10 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045215</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.62661940943602</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>159.0121003135238</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119834</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503166</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.76337569528863</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>165.6358865743629</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>13.03759959929007</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>3.783261184116412</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.58171033716537</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>127.2421404584965</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>61.34209567542511</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>200.6998725084941</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>31.19183524295281</v>
       </c>
       <c r="S25" t="n">
-        <v>62.94667469926758</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>163.8991254338641</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>213.2570857384723</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.36825177059353</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.5413092227037</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228188</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>965150.1343228188</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228188</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="11">
@@ -26317,10 +26317,10 @@
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="F2" t="n">
         <v>410580.5127245943</v>
@@ -26329,16 +26329,16 @@
         <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125333</v>
+        <v>427163.2442125332</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787486</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.73165600745</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020392</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
@@ -26451,13 +26451,13 @@
         <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-389697.0768151261</v>
+        <v>-389697.076815126</v>
       </c>
       <c r="C6" t="n">
         <v>200270.8023994185</v>
       </c>
       <c r="D6" t="n">
-        <v>200270.8023994183</v>
+        <v>200270.8023994185</v>
       </c>
       <c r="E6" t="n">
-        <v>-214483.5813570259</v>
+        <v>-214581.040482998</v>
       </c>
       <c r="F6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.9959938979</v>
       </c>
       <c r="G6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.9959938981</v>
       </c>
       <c r="H6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.9959938979</v>
       </c>
       <c r="I6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.995993898</v>
       </c>
       <c r="J6" t="n">
-        <v>134253.2359272773</v>
+        <v>134155.776801305</v>
       </c>
       <c r="K6" t="n">
-        <v>260291.0762092608</v>
+        <v>260272.5824713266</v>
       </c>
       <c r="L6" t="n">
-        <v>292653.3976605284</v>
+        <v>292653.3976605285</v>
       </c>
       <c r="M6" t="n">
         <v>168195.2892275581</v>
       </c>
       <c r="N6" t="n">
-        <v>302996.3044613954</v>
+        <v>302996.3044613953</v>
       </c>
       <c r="O6" t="n">
         <v>302996.3044613953</v>
       </c>
       <c r="P6" t="n">
-        <v>258833.6991585495</v>
+        <v>258833.6991585498</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>362.5885194696804</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>182.9125578436375</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>53.67288209830369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>139.9389333778659</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>143.4193497731526</v>
       </c>
       <c r="T5" t="n">
-        <v>16.82182809376829</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>177.6285262984163</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>68.45405076146062</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.975201561408255</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>25.40869354686963</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>276.5170107745712</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.24816279685883e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.579747595651265e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29275,10 +29275,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795902</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6396521945101</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>492.2066737115368</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408111</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>516.7753531914248</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
